--- a/data/pca/factorExposure/factorExposure_2008-12-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-30.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01965613394439249</v>
+        <v>-0.01822628595668183</v>
       </c>
       <c r="C2">
-        <v>-0.01009936342465054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.0123798284366947</v>
+      </c>
+      <c r="D2">
+        <v>-0.01288137813261752</v>
+      </c>
+      <c r="E2">
+        <v>-0.01418544619791065</v>
+      </c>
+      <c r="F2">
+        <v>0.00389795464617601</v>
+      </c>
+      <c r="G2">
+        <v>-0.01970048861680112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.07953933107023116</v>
+        <v>-0.08265687188708319</v>
       </c>
       <c r="C4">
-        <v>-0.08536485434692577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08810952495903231</v>
+      </c>
+      <c r="D4">
+        <v>0.05902489219676479</v>
+      </c>
+      <c r="E4">
+        <v>-0.03414148226743084</v>
+      </c>
+      <c r="F4">
+        <v>0.01924136332097663</v>
+      </c>
+      <c r="G4">
+        <v>-0.02581956286138432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.00412886376988016</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001706702275847287</v>
+      </c>
+      <c r="D5">
+        <v>0.0007530004967531095</v>
+      </c>
+      <c r="E5">
+        <v>0.004592482266345768</v>
+      </c>
+      <c r="F5">
+        <v>0.002608982256811958</v>
+      </c>
+      <c r="G5">
+        <v>0.005146827196403675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1697015340748212</v>
+        <v>-0.17123748472086</v>
       </c>
       <c r="C6">
-        <v>0.01916037885752448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.009751345481487478</v>
+      </c>
+      <c r="D6">
+        <v>0.06515503224724982</v>
+      </c>
+      <c r="E6">
+        <v>0.0556457303301233</v>
+      </c>
+      <c r="F6">
+        <v>0.03330888401536423</v>
+      </c>
+      <c r="G6">
+        <v>0.02172082364513467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05364630594813659</v>
+        <v>-0.05534715654472523</v>
       </c>
       <c r="C7">
-        <v>-0.05970121508175548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06368403671449942</v>
+      </c>
+      <c r="D7">
+        <v>0.06665108471883843</v>
+      </c>
+      <c r="E7">
+        <v>-0.07086296791247146</v>
+      </c>
+      <c r="F7">
+        <v>-0.01294089546080185</v>
+      </c>
+      <c r="G7">
+        <v>-0.073068164642992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05096158209754525</v>
+        <v>-0.04888233428168207</v>
       </c>
       <c r="C8">
-        <v>-0.05437756288445614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05423482708185514</v>
+      </c>
+      <c r="D8">
+        <v>-0.02022427331590722</v>
+      </c>
+      <c r="E8">
+        <v>-0.04182275845731714</v>
+      </c>
+      <c r="F8">
+        <v>-0.01695353505608485</v>
+      </c>
+      <c r="G8">
+        <v>-0.002764068427467615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05682629206476075</v>
+        <v>-0.06161807562718796</v>
       </c>
       <c r="C9">
-        <v>-0.09398612767714887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09466023257065281</v>
+      </c>
+      <c r="D9">
+        <v>0.08905636774539523</v>
+      </c>
+      <c r="E9">
+        <v>-0.05334534498627932</v>
+      </c>
+      <c r="F9">
+        <v>0.003034212431473293</v>
+      </c>
+      <c r="G9">
+        <v>-0.003057859434063751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.117198905007168</v>
+        <v>-0.1033967261934922</v>
       </c>
       <c r="C10">
-        <v>0.146149352138412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.133675679621604</v>
+      </c>
+      <c r="D10">
+        <v>-0.09439531768609284</v>
+      </c>
+      <c r="E10">
+        <v>-0.04208933714545036</v>
+      </c>
+      <c r="F10">
+        <v>-0.03222756872579658</v>
+      </c>
+      <c r="G10">
+        <v>0.007921963476755424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0783098125706882</v>
+        <v>-0.07575300950926761</v>
       </c>
       <c r="C11">
-        <v>-0.1355194352745306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1345501756058789</v>
+      </c>
+      <c r="D11">
+        <v>0.04738260885272548</v>
+      </c>
+      <c r="E11">
+        <v>-0.06886137416143172</v>
+      </c>
+      <c r="F11">
+        <v>-0.002175065727516163</v>
+      </c>
+      <c r="G11">
+        <v>0.006136105120168018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0795031277015408</v>
+        <v>-0.07579734307410836</v>
       </c>
       <c r="C12">
-        <v>-0.1626690348922784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.1587782875575283</v>
+      </c>
+      <c r="D12">
+        <v>0.05130605650006297</v>
+      </c>
+      <c r="E12">
+        <v>-0.07049953167856678</v>
+      </c>
+      <c r="F12">
+        <v>-0.00928558196406769</v>
+      </c>
+      <c r="G12">
+        <v>-0.01988108129077506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.03973060138233016</v>
+        <v>-0.04155489771030291</v>
       </c>
       <c r="C13">
-        <v>-0.06892593460682947</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07354729221388467</v>
+      </c>
+      <c r="D13">
+        <v>0.03242609853476478</v>
+      </c>
+      <c r="E13">
+        <v>-0.07472321540472177</v>
+      </c>
+      <c r="F13">
+        <v>-0.01350145402645533</v>
+      </c>
+      <c r="G13">
+        <v>-0.03054054614322901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02061039370083664</v>
+        <v>-0.02321852485148929</v>
       </c>
       <c r="C14">
-        <v>-0.04979524403846732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.05102518347068419</v>
+      </c>
+      <c r="D14">
+        <v>0.04319709542737087</v>
+      </c>
+      <c r="E14">
+        <v>-0.069823729896591</v>
+      </c>
+      <c r="F14">
+        <v>-0.008900340171099448</v>
+      </c>
+      <c r="G14">
+        <v>0.008952277979504103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03313494644117618</v>
+        <v>-0.03341988967193135</v>
       </c>
       <c r="C15">
-        <v>-0.0658864744150572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.0632549322097529</v>
+      </c>
+      <c r="D15">
+        <v>0.04684721108366743</v>
+      </c>
+      <c r="E15">
+        <v>-0.01752227272776376</v>
+      </c>
+      <c r="F15">
+        <v>-0.01946834171638062</v>
+      </c>
+      <c r="G15">
+        <v>-0.01457935067517092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0560575647076123</v>
+        <v>-0.05477098572945931</v>
       </c>
       <c r="C16">
-        <v>-0.1554956669291259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.154340321933225</v>
+      </c>
+      <c r="D16">
+        <v>0.04717036038413246</v>
+      </c>
+      <c r="E16">
+        <v>-0.06290417537582535</v>
+      </c>
+      <c r="F16">
+        <v>0.01662616922707765</v>
+      </c>
+      <c r="G16">
+        <v>0.01774394718365343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.007018173040593056</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.005265905794205229</v>
+      </c>
+      <c r="D17">
+        <v>-0.002949638771651139</v>
+      </c>
+      <c r="E17">
+        <v>0.01212871903297355</v>
+      </c>
+      <c r="F17">
+        <v>-0.008535248098054168</v>
+      </c>
+      <c r="G17">
+        <v>0.006788602845238829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04378594010761636</v>
+        <v>-0.05412160577470986</v>
       </c>
       <c r="C18">
-        <v>-0.05326861898573469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04938144693068659</v>
+      </c>
+      <c r="D18">
+        <v>-0.001966976916031999</v>
+      </c>
+      <c r="E18">
+        <v>0.05753733469043128</v>
+      </c>
+      <c r="F18">
+        <v>0.008298042974508235</v>
+      </c>
+      <c r="G18">
+        <v>0.01325431703242951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05719744698788797</v>
+        <v>-0.05649469775083575</v>
       </c>
       <c r="C20">
-        <v>-0.1061199912060436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.1032562912705277</v>
+      </c>
+      <c r="D20">
+        <v>0.07083001453836722</v>
+      </c>
+      <c r="E20">
+        <v>-0.05927938042278311</v>
+      </c>
+      <c r="F20">
+        <v>-0.007941122822489374</v>
+      </c>
+      <c r="G20">
+        <v>-0.005267974742413643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04371615042548487</v>
+        <v>-0.04551681472704426</v>
       </c>
       <c r="C21">
-        <v>-0.06677133830128719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.06324960379991759</v>
+      </c>
+      <c r="D21">
+        <v>0.01950780803823522</v>
+      </c>
+      <c r="E21">
+        <v>-0.0595483931138154</v>
+      </c>
+      <c r="F21">
+        <v>-0.0003286554330070051</v>
+      </c>
+      <c r="G21">
+        <v>-0.0255461225279637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04537945522704362</v>
+        <v>-0.04515141655650141</v>
       </c>
       <c r="C22">
-        <v>-0.03761559713149926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04117966596497723</v>
+      </c>
+      <c r="D22">
+        <v>-0.09813183695645934</v>
+      </c>
+      <c r="E22">
+        <v>0.04612692516731411</v>
+      </c>
+      <c r="F22">
+        <v>0.1085552067338114</v>
+      </c>
+      <c r="G22">
+        <v>0.1194034028911968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04538916924827593</v>
+        <v>-0.04515991095228043</v>
       </c>
       <c r="C23">
-        <v>-0.03760923366470318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04117407941446902</v>
+      </c>
+      <c r="D23">
+        <v>-0.09817251425050912</v>
+      </c>
+      <c r="E23">
+        <v>0.04612516268980548</v>
+      </c>
+      <c r="F23">
+        <v>0.1085509235683913</v>
+      </c>
+      <c r="G23">
+        <v>0.1194681503998163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06481034191581728</v>
+        <v>-0.06350339512493125</v>
       </c>
       <c r="C24">
-        <v>-0.1430872361747629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1398933825967841</v>
+      </c>
+      <c r="D24">
+        <v>0.05512422575495312</v>
+      </c>
+      <c r="E24">
+        <v>-0.06551623821140705</v>
+      </c>
+      <c r="F24">
+        <v>0.00261026190114731</v>
+      </c>
+      <c r="G24">
+        <v>-0.003370753140210165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0715718724569487</v>
+        <v>-0.06920636154268862</v>
       </c>
       <c r="C25">
-        <v>-0.1285528931719978</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1262455253833769</v>
+      </c>
+      <c r="D25">
+        <v>0.04265709922239339</v>
+      </c>
+      <c r="E25">
+        <v>-0.08008485738478427</v>
+      </c>
+      <c r="F25">
+        <v>-0.02474957323811447</v>
+      </c>
+      <c r="G25">
+        <v>-0.03331461008867687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05709685937801807</v>
+        <v>-0.0614013196432837</v>
       </c>
       <c r="C26">
-        <v>-0.07524157483874877</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07873514711309955</v>
+      </c>
+      <c r="D26">
+        <v>0.02236730813816341</v>
+      </c>
+      <c r="E26">
+        <v>-0.07023951042860498</v>
+      </c>
+      <c r="F26">
+        <v>-0.020511805229205</v>
+      </c>
+      <c r="G26">
+        <v>-0.02019760440631549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1745088049248998</v>
+        <v>-0.1779337439868013</v>
       </c>
       <c r="C28">
-        <v>0.2255938747408968</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.226174461150564</v>
+      </c>
+      <c r="D28">
+        <v>-0.002530185784668376</v>
+      </c>
+      <c r="E28">
+        <v>-0.1402287606289329</v>
+      </c>
+      <c r="F28">
+        <v>-0.06730044242645844</v>
+      </c>
+      <c r="G28">
+        <v>-0.02681755681597471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02491931794133196</v>
+        <v>-0.02690977900449473</v>
       </c>
       <c r="C29">
-        <v>-0.0564622686222101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05472538378201277</v>
+      </c>
+      <c r="D29">
+        <v>0.008448544513825543</v>
+      </c>
+      <c r="E29">
+        <v>-0.06791622095469724</v>
+      </c>
+      <c r="F29">
+        <v>-0.006819354703354008</v>
+      </c>
+      <c r="G29">
+        <v>0.007390557882489721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03219945771319552</v>
+        <v>-0.03471754288931083</v>
       </c>
       <c r="C30">
-        <v>-0.06791418245302677</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07458501233187317</v>
+      </c>
+      <c r="D30">
+        <v>0.1331188269910085</v>
+      </c>
+      <c r="E30">
+        <v>-0.06367117836165186</v>
+      </c>
+      <c r="F30">
+        <v>-0.05306477576624475</v>
+      </c>
+      <c r="G30">
+        <v>-0.04125059281233873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05284114041682727</v>
+        <v>-0.05200739994662115</v>
       </c>
       <c r="C31">
-        <v>-0.03934386431763328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.04105441982897431</v>
+      </c>
+      <c r="D31">
+        <v>0.005020597364822297</v>
+      </c>
+      <c r="E31">
+        <v>-0.01918035758810123</v>
+      </c>
+      <c r="F31">
+        <v>0.04508254510909759</v>
+      </c>
+      <c r="G31">
+        <v>0.01683251797265665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04237676030101237</v>
+        <v>-0.04601832555801073</v>
       </c>
       <c r="C32">
-        <v>-0.0584523645285718</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05540749822310528</v>
+      </c>
+      <c r="D32">
+        <v>0.01579916118176553</v>
+      </c>
+      <c r="E32">
+        <v>0.000637394743971888</v>
+      </c>
+      <c r="F32">
+        <v>-0.0176583398060546</v>
+      </c>
+      <c r="G32">
+        <v>-0.01394263865499042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07565609980922479</v>
+        <v>-0.0801105144522213</v>
       </c>
       <c r="C33">
-        <v>-0.117912541858231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1261068208360227</v>
+      </c>
+      <c r="D33">
+        <v>0.06936273250695821</v>
+      </c>
+      <c r="E33">
+        <v>-0.06345702307397258</v>
+      </c>
+      <c r="F33">
+        <v>0.008807362783899457</v>
+      </c>
+      <c r="G33">
+        <v>0.02067320474923985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05345678493460296</v>
+        <v>-0.05265720949447296</v>
       </c>
       <c r="C34">
-        <v>-0.1284039597614059</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1275511371650543</v>
+      </c>
+      <c r="D34">
+        <v>0.0804759130628193</v>
+      </c>
+      <c r="E34">
+        <v>-0.07242670747203396</v>
+      </c>
+      <c r="F34">
+        <v>-0.02359284681605968</v>
+      </c>
+      <c r="G34">
+        <v>0.02692728787972895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02715931687074757</v>
+        <v>-0.02958192878305645</v>
       </c>
       <c r="C35">
-        <v>-0.02176093611067941</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.02403282687817907</v>
+      </c>
+      <c r="D35">
+        <v>0.009055432647679783</v>
+      </c>
+      <c r="E35">
+        <v>-0.02039301325911351</v>
+      </c>
+      <c r="F35">
+        <v>-0.0169227040413359</v>
+      </c>
+      <c r="G35">
+        <v>0.02017988799038916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02555143704420372</v>
+        <v>-0.02767067603505413</v>
       </c>
       <c r="C36">
-        <v>-0.05812579609207074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05648499922582331</v>
+      </c>
+      <c r="D36">
+        <v>0.05927506647762062</v>
+      </c>
+      <c r="E36">
+        <v>2.240822545595592e-05</v>
+      </c>
+      <c r="F36">
+        <v>-0.02600430156013702</v>
+      </c>
+      <c r="G36">
+        <v>0.08597783051145085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0005917353823167639</v>
+        <v>-0.004186276929259573</v>
       </c>
       <c r="C37">
-        <v>0.0004012812550854714</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.007698873796759592</v>
+      </c>
+      <c r="D37">
+        <v>0.001592901354770188</v>
+      </c>
+      <c r="E37">
+        <v>-0.01031049914969125</v>
+      </c>
+      <c r="F37">
+        <v>0.002475706256811599</v>
+      </c>
+      <c r="G37">
+        <v>-0.004199558029205463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.07964739598695439</v>
+        <v>-0.07477205273080129</v>
       </c>
       <c r="C39">
-        <v>-0.158765691518512</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1518946728387656</v>
+      </c>
+      <c r="D39">
+        <v>0.0203057064664755</v>
+      </c>
+      <c r="E39">
+        <v>-0.1225186603715745</v>
+      </c>
+      <c r="F39">
+        <v>0.02551281863046681</v>
+      </c>
+      <c r="G39">
+        <v>-0.02392523761711031</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04865984670562365</v>
+        <v>-0.05141982188456998</v>
       </c>
       <c r="C40">
-        <v>-0.07429796613884662</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.08034386315849187</v>
+      </c>
+      <c r="D40">
+        <v>0.0112478333400162</v>
+      </c>
+      <c r="E40">
+        <v>-0.03371798444742564</v>
+      </c>
+      <c r="F40">
+        <v>-0.04941817141641441</v>
+      </c>
+      <c r="G40">
+        <v>0.004483141992049586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02892324921066003</v>
+        <v>-0.02907803565657631</v>
       </c>
       <c r="C41">
-        <v>-0.0243839492037814</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02549069196926736</v>
+      </c>
+      <c r="D41">
+        <v>-0.009220808880303353</v>
+      </c>
+      <c r="E41">
+        <v>0.01389199324792209</v>
+      </c>
+      <c r="F41">
+        <v>-0.00989413459553477</v>
+      </c>
+      <c r="G41">
+        <v>0.002296104383816415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04332544276307664</v>
+        <v>-0.0417673468678228</v>
       </c>
       <c r="C43">
-        <v>-0.0432168623567669</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.04005106403856203</v>
+      </c>
+      <c r="D43">
+        <v>-0.01387402601793106</v>
+      </c>
+      <c r="E43">
+        <v>-0.01852559713624857</v>
+      </c>
+      <c r="F43">
+        <v>0.02297048313073343</v>
+      </c>
+      <c r="G43">
+        <v>0.03323783563337423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05634236970785137</v>
+        <v>-0.06077717066306307</v>
       </c>
       <c r="C44">
-        <v>-0.0907012736684725</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.09274240783052147</v>
+      </c>
+      <c r="D44">
+        <v>0.2880044865929354</v>
+      </c>
+      <c r="E44">
+        <v>-0.09996489592632754</v>
+      </c>
+      <c r="F44">
+        <v>-0.1109492975028073</v>
+      </c>
+      <c r="G44">
+        <v>0.1340638837796231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0006869268341662181</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.0007130980096783896</v>
+      </c>
+      <c r="D45">
+        <v>-0.000154714783243959</v>
+      </c>
+      <c r="E45">
+        <v>-0.0003065960009853186</v>
+      </c>
+      <c r="F45">
+        <v>0.004693832303919355</v>
+      </c>
+      <c r="G45">
+        <v>-0.00402700328061165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02816496674597554</v>
+        <v>-0.02924307415466679</v>
       </c>
       <c r="C46">
-        <v>-0.04598309392855561</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.04235985571234797</v>
+      </c>
+      <c r="D46">
+        <v>0.001411795337779516</v>
+      </c>
+      <c r="E46">
+        <v>-0.06441190593919864</v>
+      </c>
+      <c r="F46">
+        <v>0.03296475759935681</v>
+      </c>
+      <c r="G46">
+        <v>0.008697412829019256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05596688269822576</v>
+        <v>-0.05364388242459861</v>
       </c>
       <c r="C47">
-        <v>-0.04069922501223975</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.03960022608573622</v>
+      </c>
+      <c r="D47">
+        <v>-0.03286779489679489</v>
+      </c>
+      <c r="E47">
+        <v>0.006122612763882001</v>
+      </c>
+      <c r="F47">
+        <v>0.06369157454831444</v>
+      </c>
+      <c r="G47">
+        <v>0.03367803215389206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04802497426403474</v>
+        <v>-0.04999706686015778</v>
       </c>
       <c r="C48">
-        <v>-0.07388394565229003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.07270117355966246</v>
+      </c>
+      <c r="D48">
+        <v>0.0324102378529354</v>
+      </c>
+      <c r="E48">
+        <v>-0.0587956451709731</v>
+      </c>
+      <c r="F48">
+        <v>-0.001881834865196546</v>
+      </c>
+      <c r="G48">
+        <v>-0.03906614536373416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1855507670421574</v>
+        <v>-0.1917172680582357</v>
       </c>
       <c r="C49">
-        <v>0.02695854941710591</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.0212401519796785</v>
+      </c>
+      <c r="D49">
+        <v>0.0321597241101574</v>
+      </c>
+      <c r="E49">
+        <v>0.01652334565365203</v>
+      </c>
+      <c r="F49">
+        <v>-0.04702554084846077</v>
+      </c>
+      <c r="G49">
+        <v>-0.06996137257280846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05244863539296753</v>
+        <v>-0.05248464983854059</v>
       </c>
       <c r="C50">
-        <v>-0.03770753159449652</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.03989178023623253</v>
+      </c>
+      <c r="D50">
+        <v>0.01974972378829437</v>
+      </c>
+      <c r="E50">
+        <v>-0.009726427728774679</v>
+      </c>
+      <c r="F50">
+        <v>0.04081033221256124</v>
+      </c>
+      <c r="G50">
+        <v>0.00683655036007199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1404947892455749</v>
+        <v>-0.135531193282657</v>
       </c>
       <c r="C52">
-        <v>-0.03356888847842884</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.0322209552262284</v>
+      </c>
+      <c r="D52">
+        <v>0.04316061916621774</v>
+      </c>
+      <c r="E52">
+        <v>0.06820747026190907</v>
+      </c>
+      <c r="F52">
+        <v>0.09764260343289219</v>
+      </c>
+      <c r="G52">
+        <v>0.04651819966530336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1672222395205759</v>
+        <v>-0.1610399608100832</v>
       </c>
       <c r="C53">
-        <v>0.01285155462380105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.009747234540714378</v>
+      </c>
+      <c r="D53">
+        <v>0.07942866269105685</v>
+      </c>
+      <c r="E53">
+        <v>0.104603943966055</v>
+      </c>
+      <c r="F53">
+        <v>0.1506927666679688</v>
+      </c>
+      <c r="G53">
+        <v>0.04681161923257441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01217932385012705</v>
+        <v>-0.01409190264196061</v>
       </c>
       <c r="C54">
-        <v>-0.0416273902981246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.04165021278958402</v>
+      </c>
+      <c r="D54">
+        <v>0.01612125267567644</v>
+      </c>
+      <c r="E54">
+        <v>-0.03826168324464043</v>
+      </c>
+      <c r="F54">
+        <v>0.003446593812085848</v>
+      </c>
+      <c r="G54">
+        <v>-0.00270185751378422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1221777250095543</v>
+        <v>-0.1197456310544065</v>
       </c>
       <c r="C55">
-        <v>-0.01567620997546199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01815575053375566</v>
+      </c>
+      <c r="D55">
+        <v>0.05622477149513717</v>
+      </c>
+      <c r="E55">
+        <v>0.03619320176740295</v>
+      </c>
+      <c r="F55">
+        <v>0.1522829146572115</v>
+      </c>
+      <c r="G55">
+        <v>0.05847596534113251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1796580284189613</v>
+        <v>-0.1744023349971257</v>
       </c>
       <c r="C56">
-        <v>0.007658270040420866</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.007890892747776409</v>
+      </c>
+      <c r="D56">
+        <v>0.03020767675850789</v>
+      </c>
+      <c r="E56">
+        <v>0.1377860496990744</v>
+      </c>
+      <c r="F56">
+        <v>0.1560299905091612</v>
+      </c>
+      <c r="G56">
+        <v>0.03118138658115325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04233423143387025</v>
+        <v>-0.04160443933646722</v>
       </c>
       <c r="C58">
-        <v>-0.09714710284061306</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1075539284960697</v>
+      </c>
+      <c r="D58">
+        <v>-0.005656913993247104</v>
+      </c>
+      <c r="E58">
+        <v>-0.0391772808190128</v>
+      </c>
+      <c r="F58">
+        <v>0.01881580921743938</v>
+      </c>
+      <c r="G58">
+        <v>0.003504421860629936</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1859236802264489</v>
+        <v>-0.1928200389632691</v>
       </c>
       <c r="C59">
-        <v>0.1629377213020747</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1719186216292499</v>
+      </c>
+      <c r="D59">
+        <v>-0.08789062786636327</v>
+      </c>
+      <c r="E59">
+        <v>-0.07065079946516141</v>
+      </c>
+      <c r="F59">
+        <v>0.007450525175493494</v>
+      </c>
+      <c r="G59">
+        <v>-0.04075269665700772</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2105206822413465</v>
+        <v>-0.2084528372755563</v>
       </c>
       <c r="C60">
-        <v>0.004940843975548503</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>5.552132359310412e-05</v>
+      </c>
+      <c r="D60">
+        <v>-0.06635650363503127</v>
+      </c>
+      <c r="E60">
+        <v>0.1390268203174181</v>
+      </c>
+      <c r="F60">
+        <v>0.05864710413119534</v>
+      </c>
+      <c r="G60">
+        <v>-0.1036296299179998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06197205974223054</v>
+        <v>-0.05977448347109607</v>
       </c>
       <c r="C61">
-        <v>-0.1328079279930391</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.13001586567791</v>
+      </c>
+      <c r="D61">
+        <v>0.02068043563155801</v>
+      </c>
+      <c r="E61">
+        <v>-0.07425101521941323</v>
+      </c>
+      <c r="F61">
+        <v>-0.0005447760492869228</v>
+      </c>
+      <c r="G61">
+        <v>-0.02451082510680107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1697001535780363</v>
+        <v>-0.1661815465288411</v>
       </c>
       <c r="C62">
-        <v>0.004912533800080246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.004855608480916267</v>
+      </c>
+      <c r="D62">
+        <v>0.02968245539722706</v>
+      </c>
+      <c r="E62">
+        <v>0.1171470306485985</v>
+      </c>
+      <c r="F62">
+        <v>0.1423573988626685</v>
+      </c>
+      <c r="G62">
+        <v>0.03904138449048409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.03973018094567222</v>
+        <v>-0.04279340594787946</v>
       </c>
       <c r="C63">
-        <v>-0.08283345897704072</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08537951330538029</v>
+      </c>
+      <c r="D63">
+        <v>0.01790559997864735</v>
+      </c>
+      <c r="E63">
+        <v>-0.03536511454575324</v>
+      </c>
+      <c r="F63">
+        <v>-0.02341414815502657</v>
+      </c>
+      <c r="G63">
+        <v>0.01963134684005322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.113410156750776</v>
+        <v>-0.1107735840012603</v>
       </c>
       <c r="C64">
-        <v>-0.06284677568660178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.06481155250293565</v>
+      </c>
+      <c r="D64">
+        <v>0.02808617489479386</v>
+      </c>
+      <c r="E64">
+        <v>0.05130740972535561</v>
+      </c>
+      <c r="F64">
+        <v>0.01612018387053318</v>
+      </c>
+      <c r="G64">
+        <v>-0.01333263597377211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1618319285808003</v>
+        <v>-0.1636882823072112</v>
       </c>
       <c r="C65">
-        <v>0.06141163695665165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04919128711859545</v>
+      </c>
+      <c r="D65">
+        <v>0.07027367862137264</v>
+      </c>
+      <c r="E65">
+        <v>-0.004270262132287704</v>
+      </c>
+      <c r="F65">
+        <v>0.04547877618461683</v>
+      </c>
+      <c r="G65">
+        <v>0.02332826485910381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.09514465563965242</v>
+        <v>-0.09074919931492981</v>
       </c>
       <c r="C66">
-        <v>-0.1334712997300666</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1321400990112185</v>
+      </c>
+      <c r="D66">
+        <v>0.02195377134192818</v>
+      </c>
+      <c r="E66">
+        <v>-0.09263949723594364</v>
+      </c>
+      <c r="F66">
+        <v>-0.0244236796391811</v>
+      </c>
+      <c r="G66">
+        <v>-0.002388510801273772</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0498799499236557</v>
+        <v>-0.04351908989428297</v>
       </c>
       <c r="C67">
-        <v>-0.08471642230000115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.07732019309538819</v>
+      </c>
+      <c r="D67">
+        <v>-0.06927333209052992</v>
+      </c>
+      <c r="E67">
+        <v>0.02926701423356708</v>
+      </c>
+      <c r="F67">
+        <v>0.04881755927427729</v>
+      </c>
+      <c r="G67">
+        <v>0.05876725085242089</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1458895281483865</v>
+        <v>-0.1474404151287565</v>
       </c>
       <c r="C68">
-        <v>0.2457395918184777</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2452831893437545</v>
+      </c>
+      <c r="D68">
+        <v>-0.0005330063765813877</v>
+      </c>
+      <c r="E68">
+        <v>-0.1323035913134745</v>
+      </c>
+      <c r="F68">
+        <v>-0.07507317856539554</v>
+      </c>
+      <c r="G68">
+        <v>-0.07631207112682963</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0399754230467371</v>
+        <v>-0.0384204809842001</v>
       </c>
       <c r="C69">
-        <v>-0.01572019616074483</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01827412300895433</v>
+      </c>
+      <c r="D69">
+        <v>-0.008176969227280839</v>
+      </c>
+      <c r="E69">
+        <v>0.04893642085485255</v>
+      </c>
+      <c r="F69">
+        <v>0.04038313240346798</v>
+      </c>
+      <c r="G69">
+        <v>0.06565966817401771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07484279049806017</v>
+        <v>-0.07280387045073482</v>
       </c>
       <c r="C70">
-        <v>-0.09695655396458873</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09670655758739423</v>
+      </c>
+      <c r="D70">
+        <v>-0.5321903376589551</v>
+      </c>
+      <c r="E70">
+        <v>0.2414725415770481</v>
+      </c>
+      <c r="F70">
+        <v>0.2657224683326982</v>
+      </c>
+      <c r="G70">
+        <v>-0.4924612641523635</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.170237670010092</v>
+        <v>-0.1724324513769599</v>
       </c>
       <c r="C71">
-        <v>0.2509692220315061</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.25011973278411</v>
+      </c>
+      <c r="D71">
+        <v>-0.008478779936166572</v>
+      </c>
+      <c r="E71">
+        <v>-0.1354491584127813</v>
+      </c>
+      <c r="F71">
+        <v>-0.08591993340031252</v>
+      </c>
+      <c r="G71">
+        <v>-0.08857614840435032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1449602749961378</v>
+        <v>-0.1494616747565825</v>
       </c>
       <c r="C72">
-        <v>-0.009761762750174936</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.009004757901194949</v>
+      </c>
+      <c r="D72">
+        <v>0.04449970095490022</v>
+      </c>
+      <c r="E72">
+        <v>0.02628042183683225</v>
+      </c>
+      <c r="F72">
+        <v>0.07048011209340939</v>
+      </c>
+      <c r="G72">
+        <v>0.08755724619242246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1852760189269441</v>
+        <v>-0.1940052516581617</v>
       </c>
       <c r="C73">
-        <v>-0.01531268961666559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.02205752746070423</v>
+      </c>
+      <c r="D73">
+        <v>0.03205210966161608</v>
+      </c>
+      <c r="E73">
+        <v>0.08840530010680908</v>
+      </c>
+      <c r="F73">
+        <v>0.04473823810830518</v>
+      </c>
+      <c r="G73">
+        <v>0.04055325043759248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08787998120305669</v>
+        <v>-0.0866195885316776</v>
       </c>
       <c r="C74">
-        <v>-0.004102651735418235</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01062813872163377</v>
+      </c>
+      <c r="D74">
+        <v>0.06792100471890498</v>
+      </c>
+      <c r="E74">
+        <v>0.07632914028381112</v>
+      </c>
+      <c r="F74">
+        <v>0.05879230596954932</v>
+      </c>
+      <c r="G74">
+        <v>0.04181872579070706</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1217455992290332</v>
+        <v>-0.1143960933822931</v>
       </c>
       <c r="C75">
-        <v>-0.02369406787698423</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02471625209196618</v>
+      </c>
+      <c r="D75">
+        <v>0.02262297169354019</v>
+      </c>
+      <c r="E75">
+        <v>0.06360984738062128</v>
+      </c>
+      <c r="F75">
+        <v>0.1263445639661739</v>
+      </c>
+      <c r="G75">
+        <v>0.07828010604768393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07684691776608689</v>
+        <v>-0.08730225919230458</v>
       </c>
       <c r="C77">
-        <v>-0.1184183586220981</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1219287812410503</v>
+      </c>
+      <c r="D77">
+        <v>0.08060139993772737</v>
+      </c>
+      <c r="E77">
+        <v>-0.0926002714775314</v>
+      </c>
+      <c r="F77">
+        <v>0.05457699875088041</v>
+      </c>
+      <c r="G77">
+        <v>-0.13310427481605</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.07539214159360302</v>
+        <v>-0.08254938802605516</v>
       </c>
       <c r="C78">
-        <v>-0.1235226465761672</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1246263622697136</v>
+      </c>
+      <c r="D78">
+        <v>0.05028008856985047</v>
+      </c>
+      <c r="E78">
+        <v>-0.1186239695826614</v>
+      </c>
+      <c r="F78">
+        <v>0.0768190048169224</v>
+      </c>
+      <c r="G78">
+        <v>-0.009394889987100617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1679736950764754</v>
+        <v>-0.1634123549817349</v>
       </c>
       <c r="C79">
-        <v>-0.02308585411703038</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02235350713651619</v>
+      </c>
+      <c r="D79">
+        <v>0.01645255651391232</v>
+      </c>
+      <c r="E79">
+        <v>0.05500715943672112</v>
+      </c>
+      <c r="F79">
+        <v>0.1092639994139624</v>
+      </c>
+      <c r="G79">
+        <v>0.0524055242209297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07941717000550545</v>
+        <v>-0.07568915222715385</v>
       </c>
       <c r="C80">
-        <v>-0.08770715504356839</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.08221653631451808</v>
+      </c>
+      <c r="D80">
+        <v>-0.005172240396728708</v>
+      </c>
+      <c r="E80">
+        <v>-0.05685395365808424</v>
+      </c>
+      <c r="F80">
+        <v>-0.08511176780227515</v>
+      </c>
+      <c r="G80">
+        <v>0.03443726893497866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1126801577725591</v>
+        <v>-0.1062037890354953</v>
       </c>
       <c r="C81">
-        <v>0.01263375241374283</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01167071813645013</v>
+      </c>
+      <c r="D81">
+        <v>-0.001874521178369879</v>
+      </c>
+      <c r="E81">
+        <v>0.08026351941780099</v>
+      </c>
+      <c r="F81">
+        <v>0.1069125522082245</v>
+      </c>
+      <c r="G81">
+        <v>0.1095730306703909</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1625148944821561</v>
+        <v>-0.1575336271727641</v>
       </c>
       <c r="C82">
-        <v>0.01557632163175973</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.01233940355837687</v>
+      </c>
+      <c r="D82">
+        <v>0.08352987956530197</v>
+      </c>
+      <c r="E82">
+        <v>0.1259247333685535</v>
+      </c>
+      <c r="F82">
+        <v>0.07137025702988502</v>
+      </c>
+      <c r="G82">
+        <v>0.06030028499826495</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05148817290660222</v>
+        <v>-0.048068637031036</v>
       </c>
       <c r="C83">
-        <v>-0.06500609785491494</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.06004912325197465</v>
+      </c>
+      <c r="D83">
+        <v>-0.02565895511695453</v>
+      </c>
+      <c r="E83">
+        <v>-0.0002554742139573512</v>
+      </c>
+      <c r="F83">
+        <v>-0.003564419793385648</v>
+      </c>
+      <c r="G83">
+        <v>-0.01911715289602365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04648243920612644</v>
+        <v>-0.04552095754481552</v>
       </c>
       <c r="C84">
-        <v>-0.07729906546473045</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07467586587332603</v>
+      </c>
+      <c r="D84">
+        <v>-0.0194400952314868</v>
+      </c>
+      <c r="E84">
+        <v>0.009077197908009019</v>
+      </c>
+      <c r="F84">
+        <v>0.0232046817626973</v>
+      </c>
+      <c r="G84">
+        <v>-0.01661950909126936</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1401198987001886</v>
+        <v>-0.1353461398023456</v>
       </c>
       <c r="C85">
-        <v>-0.008148644443305118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.00904983540198648</v>
+      </c>
+      <c r="D85">
+        <v>0.0811081768431527</v>
+      </c>
+      <c r="E85">
+        <v>0.04730204898420142</v>
+      </c>
+      <c r="F85">
+        <v>0.1042765625090997</v>
+      </c>
+      <c r="G85">
+        <v>0.06587601439141005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08177702342277049</v>
+        <v>-0.08204303482033738</v>
       </c>
       <c r="C86">
-        <v>-0.1554468001103585</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1579525063884865</v>
+      </c>
+      <c r="D86">
+        <v>-0.6218267069499465</v>
+      </c>
+      <c r="E86">
+        <v>-0.480333336247208</v>
+      </c>
+      <c r="F86">
+        <v>0.01596254562102262</v>
+      </c>
+      <c r="G86">
+        <v>0.4362303607401833</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09135003624082787</v>
+        <v>-0.08701639860263873</v>
       </c>
       <c r="C87">
-        <v>-0.1060128727927529</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.1032104234754931</v>
+      </c>
+      <c r="D87">
+        <v>0.1164953644870106</v>
+      </c>
+      <c r="E87">
+        <v>-0.07125787042141385</v>
+      </c>
+      <c r="F87">
+        <v>-0.1682196251486377</v>
+      </c>
+      <c r="G87">
+        <v>-0.1402313429279307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05983446694423325</v>
+        <v>-0.05932598224466707</v>
       </c>
       <c r="C88">
-        <v>-0.0637291644942109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06351474417452833</v>
+      </c>
+      <c r="D88">
+        <v>0.007912845076910235</v>
+      </c>
+      <c r="E88">
+        <v>0.02623368186812132</v>
+      </c>
+      <c r="F88">
+        <v>0.03060278228195262</v>
+      </c>
+      <c r="G88">
+        <v>0.006435628206401887</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1545315636135139</v>
+        <v>-0.1533354533721932</v>
       </c>
       <c r="C89">
-        <v>0.1949490979843784</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2024915218005963</v>
+      </c>
+      <c r="D89">
+        <v>0.007099179319810766</v>
+      </c>
+      <c r="E89">
+        <v>-0.08874779298907486</v>
+      </c>
+      <c r="F89">
+        <v>-0.07135175941192555</v>
+      </c>
+      <c r="G89">
+        <v>-0.04729199468986148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1866182639719327</v>
+        <v>-0.1895763486282928</v>
       </c>
       <c r="C90">
-        <v>0.2263996246285016</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2292201600718056</v>
+      </c>
+      <c r="D90">
+        <v>-0.009589376532706488</v>
+      </c>
+      <c r="E90">
+        <v>-0.1592556098312417</v>
+      </c>
+      <c r="F90">
+        <v>-0.1333761696830442</v>
+      </c>
+      <c r="G90">
+        <v>-0.1003849042618808</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1258105320061541</v>
+        <v>-0.1199087248129134</v>
       </c>
       <c r="C91">
-        <v>0.02042235253452432</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01941989055736495</v>
+      </c>
+      <c r="D91">
+        <v>-0.02709973215589899</v>
+      </c>
+      <c r="E91">
+        <v>0.1078675989470077</v>
+      </c>
+      <c r="F91">
+        <v>0.1187969456275614</v>
+      </c>
+      <c r="G91">
+        <v>0.1334333870246349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1790896062541607</v>
+        <v>-0.1800098881347557</v>
       </c>
       <c r="C92">
-        <v>0.2566685240575771</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2684302394197963</v>
+      </c>
+      <c r="D92">
+        <v>-0.01324483926903287</v>
+      </c>
+      <c r="E92">
+        <v>-0.2019033985111416</v>
+      </c>
+      <c r="F92">
+        <v>-0.04883464876271804</v>
+      </c>
+      <c r="G92">
+        <v>-0.07691301419222203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1820248685195703</v>
+        <v>-0.1886477823217517</v>
       </c>
       <c r="C93">
-        <v>0.2200095137118513</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2228166465553875</v>
+      </c>
+      <c r="D93">
+        <v>-0.01371948122562502</v>
+      </c>
+      <c r="E93">
+        <v>-0.1094716543354808</v>
+      </c>
+      <c r="F93">
+        <v>-0.00555755313707544</v>
+      </c>
+      <c r="G93">
+        <v>-0.0639749859229925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1173045590211512</v>
+        <v>-0.1121089759438736</v>
       </c>
       <c r="C94">
-        <v>-0.03316711023135966</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03326126666532709</v>
+      </c>
+      <c r="D94">
+        <v>0.02357615327500978</v>
+      </c>
+      <c r="E94">
+        <v>0.06057646441998695</v>
+      </c>
+      <c r="F94">
+        <v>0.1195819814602648</v>
+      </c>
+      <c r="G94">
+        <v>0.07498842985890299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1188310294779854</v>
+        <v>-0.1188244031081794</v>
       </c>
       <c r="C95">
-        <v>-0.1098447576646248</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1185428856259567</v>
+      </c>
+      <c r="D95">
+        <v>-0.0008432657935762342</v>
+      </c>
+      <c r="E95">
+        <v>-0.07202116300787065</v>
+      </c>
+      <c r="F95">
+        <v>-0.002404074428208463</v>
+      </c>
+      <c r="G95">
+        <v>-0.00665564748718611</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.113325775475231</v>
+        <v>-0.1119400924302805</v>
       </c>
       <c r="C96">
-        <v>-0.1264452812434601</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1290566747664972</v>
+      </c>
+      <c r="D96">
+        <v>-0.01845910601594416</v>
+      </c>
+      <c r="E96">
+        <v>0.04689969431898635</v>
+      </c>
+      <c r="F96">
+        <v>0.03846837277528602</v>
+      </c>
+      <c r="G96">
+        <v>-0.1300833189676395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1978831111682055</v>
+        <v>-0.2016217834819396</v>
       </c>
       <c r="C97">
-        <v>-0.02138036078847893</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01404297446576492</v>
+      </c>
+      <c r="D97">
+        <v>-0.1782225746742214</v>
+      </c>
+      <c r="E97">
+        <v>0.4840958592022525</v>
+      </c>
+      <c r="F97">
+        <v>-0.6021116878669953</v>
+      </c>
+      <c r="G97">
+        <v>0.3743957212688171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1959105884333438</v>
+        <v>-0.2030003338987741</v>
       </c>
       <c r="C98">
-        <v>-0.02020310706601691</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02408025998150718</v>
+      </c>
+      <c r="D98">
+        <v>-0.07288653757677649</v>
+      </c>
+      <c r="E98">
+        <v>0.08275692978929119</v>
+      </c>
+      <c r="F98">
+        <v>-0.08039026111463103</v>
+      </c>
+      <c r="G98">
+        <v>-0.1298214938731163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05111978122254018</v>
+        <v>-0.05151117175135764</v>
       </c>
       <c r="C99">
-        <v>-0.06474977182153593</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.0633753441423632</v>
+      </c>
+      <c r="D99">
+        <v>-0.0009470007551142659</v>
+      </c>
+      <c r="E99">
+        <v>-0.02752376560306988</v>
+      </c>
+      <c r="F99">
+        <v>-0.03461806913413897</v>
+      </c>
+      <c r="G99">
+        <v>-0.0116634235886085</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09727657065120608</v>
+        <v>-0.09404256529508639</v>
       </c>
       <c r="C100">
-        <v>-0.3174453667627662</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.3014566146500819</v>
+      </c>
+      <c r="D100">
+        <v>-0.1250172987699746</v>
+      </c>
+      <c r="E100">
+        <v>0.02605872908148698</v>
+      </c>
+      <c r="F100">
+        <v>-0.449942838377144</v>
+      </c>
+      <c r="G100">
+        <v>-0.3781438595390099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02485248448484523</v>
+        <v>-0.02684550724635832</v>
       </c>
       <c r="C101">
-        <v>-0.0558506916439243</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05409012610382147</v>
+      </c>
+      <c r="D101">
+        <v>0.004163895458710916</v>
+      </c>
+      <c r="E101">
+        <v>-0.06370225390008373</v>
+      </c>
+      <c r="F101">
+        <v>-0.00360182251266331</v>
+      </c>
+      <c r="G101">
+        <v>0.004846110587332897</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
